--- a/Assets/Game/InGame/Enemy/Drop Item/Table/Excel/DropItemTable.xlsx
+++ b/Assets/Game/InGame/Enemy/Drop Item/Table/Excel/DropItemTable.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Confront\Assets\Game\InGame\Enemy\Drop Item\Table\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85573846-A22C-42D5-88F6-7D6C85476ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C153161B-AC76-4843-98ED-C8B02134A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
     <sheet name="Enemy0" sheetId="1" r:id="rId2"/>
     <sheet name="Enemy1" sheetId="3" r:id="rId3"/>
-    <sheet name="Enemy3" sheetId="4" r:id="rId4"/>
+    <sheet name="Enemy2" sheetId="7" r:id="rId4"/>
+    <sheet name="Enemy3" sheetId="4" r:id="rId5"/>
+    <sheet name="Enemy4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -457,7 +459,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -492,16 +494,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -520,13 +522,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -537,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -548,16 +550,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -565,13 +567,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -579,13 +581,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -593,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -607,26 +609,12 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
         <v>1</v>
       </c>
     </row>
@@ -641,12 +629,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -668,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -782,14 +771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2538FEBC-8076-4DA3-AF45-B8115BD6A835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E9648E-D500-490C-BC04-29B5DFB81F0A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -810,10 +799,322 @@
         <v>9</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2538FEBC-8076-4DA3-AF45-B8115BD6A835}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E98CBDD-4ACD-4AFE-85D6-C636D864BAA9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
       </c>
       <c r="D2">
         <v>1</v>

--- a/Assets/Game/InGame/Enemy/Drop Item/Table/Excel/DropItemTable.xlsx
+++ b/Assets/Game/InGame/Enemy/Drop Item/Table/Excel/DropItemTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Confront\Assets\Game\InGame\Enemy\Drop Item\Table\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diamo\Desktop\Confront\Confront\Assets\Game\InGame\Enemy\Drop Item\Table\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C153161B-AC76-4843-98ED-C8B02134A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD22AAC5-9811-4439-A384-6575390E0E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -775,7 +775,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>1</v>
